--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bi004042/Documents/CodeDocuments/projetos/Three-Ropes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bi004042/Documents/CodeDocuments/projetos/ThreeRopes_StockProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBA7187-68A1-504F-BCA7-F29671F8A88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F1B3B-F1A1-C74E-8006-5046F0280A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" xr2:uid="{51563DD7-AF15-484C-8D92-0A8501D51E48}"/>
+    <workbookView xWindow="34400" yWindow="2520" windowWidth="25600" windowHeight="13980" activeTab="1" xr2:uid="{51563DD7-AF15-484C-8D92-0A8501D51E48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Order</t>
   </si>
@@ -77,13 +78,34 @@
   </si>
   <si>
     <t>name: item &amp; barCode</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Salvar</t>
+  </si>
+  <si>
+    <t>Reiniciar</t>
+  </si>
+  <si>
+    <t>Código EAN</t>
+  </si>
+  <si>
+    <t>Número de série</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,16 +121,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF945200"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -116,11 +183,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF945200"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF945200"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF945200"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF945200"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -131,12 +290,85 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEBEBEB"/>
+      <color rgb="FF945200"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -146,6 +378,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E25B4D2-3C19-445D-7BE0-4DED2C5B75EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10642600" cy="2451100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE2CE7-EF30-6E4B-A667-063C1641ED76}">
-  <dimension ref="A3:H10"/>
+  <dimension ref="A3:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +742,7 @@
     <col min="9" max="20" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -469,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -477,61 +758,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D5" s="2" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>4562</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>789100023651</v>
-      </c>
-      <c r="D7" s="3">
-        <v>242343254352514</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3">
-        <v>789100023651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>4563</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -539,35 +802,47 @@
       <c r="C8" s="3">
         <v>789100023651</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>242343254352514</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="3">
-        <v>789100023660</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>789100023651</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>789100023660</v>
+        <v>789100023651</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>789100023660</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -579,9 +854,154 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>4565</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>789100023660</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432B9718-78FE-BC4D-B3BF-FCD5C9B2ED7E}">
+  <dimension ref="A3:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>